--- a/biology/Botanique/Salix_paraplesia/Salix_paraplesia.xlsx
+++ b/biology/Botanique/Salix_paraplesia/Salix_paraplesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix paraplesia est une espèce de saule, arbre de la famille des Salicaceae, originaire de Chine.
 </t>
@@ -511,14 +523,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix paraplexia f. lanceolata C. Wang &amp; C.Y. Yu ;
-Pleiarina paraplesia (C.K. Schneid.) N. Chao &amp; G.T. Gong.
-Sous-espèces
-L'espèce est divisée en sous-espèces :
-Salix paraplesia var. pubescens C. Wang &amp; C. F. Fang ;
-Salix paraplesia var. subintegra C. Wang &amp; P. Y. Fu[2],[3].</t>
+Pleiarina paraplesia (C.K. Schneid.) N. Chao &amp; G.T. Gong.</t>
         </is>
       </c>
     </row>
@@ -543,15 +553,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce est divisée en sous-espèces :
+Salix paraplesia var. pubescens C. Wang &amp; C. F. Fang ;
+Salix paraplesia var. subintegra C. Wang &amp; P. Y. Fu,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Salix_paraplesia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salix_paraplesia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Salix paraplesia est un arbre atteignant 7 m de haut. Ses rameaux sont gris, rarement avec une teinte violacée, glabres ou duveteux gris. Le pétiole de 5 à 8 mm porte un limbe obovale-elliptique ou elliptique-lancéolé, rarement lancéolé, de 3,5-6,5 × 1,8-2,8 cm, abaxialement légèrement blanc, glabre ou duveteux gris, vert, adaxialement terne, de base cunéiforme. La marge est dentée, ostensiblement glandulaire, ou entière tout au long ou seulement basalement, apex acuminé ou aigu.
 Le chaton mâle, de 3,5 (-6) cm × 7 mm, au long pédoncule, porte de 3 à 5 folioles, le rachis est pubescent. Les bractées sont oblongues ou elliptiques, de 2 mm, pileuses sur les deux faces ou abaxialement glabres, dentées, glandulaires à la marge, leur apex est obtus arrondi ou tronqué. La fleur mâle porte des glandes  aplaties, grosses, collées à la base, la glande abaxiale porte deux ou trois lobes, la glande adaxiale est constituée de deux lobes. Présence de cinq à sept étamines, de 3,5 mm, inégales. Filaments duveteux à la base, anthères généralement ellipsoïdales ou subglobuleuses. Le chaton femelle mesure de 2-3 (-4) cm à 5 cm. Dans les fruits, présence de bractées comme dans le chaton mâle. Fleur femelle portant des glandes 1 ou 2 adaxiales, parfois 2 lobées ; elles sont longues, ovoïdes, avec un ovaire ovoïde conique, de 4 à 5 mm. La capsule mesure 9 mm, elle est brillante.
-La floraison a lieu en avril-mai, la fructification en juin-juillet[4].
-La plante pousse dans les vallées, près des rivières ou en zones cultivées, de 1 500 à 3 900 m d'altitude, dans les provinces de Gansu, Ningxia, Qinghai, Shaanxi, Shanxi, Sichuan, est du Xizang, Yunnan[4].</t>
+La floraison a lieu en avril-mai, la fructification en juin-juillet.
+La plante pousse dans les vallées, près des rivières ou en zones cultivées, de 1 500 à 3 900 m d'altitude, dans les provinces de Gansu, Ningxia, Qinghai, Shaanxi, Shanxi, Sichuan, est du Xizang, Yunnan.</t>
         </is>
       </c>
     </row>
